--- a/Code/Results/Cases/Case_2_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.099392047181169</v>
+        <v>0.8303843263742863</v>
       </c>
       <c r="C2">
-        <v>0.0909085640820777</v>
+        <v>0.1067054068322477</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04654915641478574</v>
+        <v>0.1036435616348044</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.8302594770120777</v>
+        <v>1.430881998654868</v>
       </c>
       <c r="H2">
-        <v>0.6138576484521678</v>
+        <v>1.332809327528906</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8883433386050399</v>
+        <v>0.4386586759883073</v>
       </c>
       <c r="L2">
-        <v>0.1471017124193637</v>
+        <v>0.1931854430375068</v>
       </c>
       <c r="M2">
-        <v>0.2302211896872386</v>
+        <v>0.2099128288949856</v>
       </c>
       <c r="N2">
-        <v>1.293763492631658</v>
+        <v>2.581155204035216</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.96481635572502</v>
+        <v>0.7972251687634753</v>
       </c>
       <c r="C3">
-        <v>0.08627821067290853</v>
+        <v>0.1050585938253974</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04537401876220848</v>
+        <v>0.1038382882349609</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.8141265290519755</v>
+        <v>1.435355864311873</v>
       </c>
       <c r="H3">
-        <v>0.6142560980506175</v>
+        <v>1.339798634065673</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7713144480996164</v>
+        <v>0.407164507892162</v>
       </c>
       <c r="L3">
-        <v>0.1337503218238041</v>
+        <v>0.190700560962263</v>
       </c>
       <c r="M3">
-        <v>0.2038051637971705</v>
+        <v>0.203792270929231</v>
       </c>
       <c r="N3">
-        <v>1.350572231407096</v>
+        <v>2.604529354432923</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8830404001712679</v>
+        <v>0.7772777148367993</v>
       </c>
       <c r="C4">
-        <v>0.08343279142201965</v>
+        <v>0.1040301257229146</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04470367374944395</v>
+        <v>0.1039925699847881</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.8058264250543772</v>
+        <v>1.438836345955579</v>
       </c>
       <c r="H4">
-        <v>0.6154315755203186</v>
+        <v>1.344599376255275</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6999953340378653</v>
+        <v>0.3880170742764903</v>
       </c>
       <c r="L4">
-        <v>0.1257156125659193</v>
+        <v>0.1892669514525096</v>
       </c>
       <c r="M4">
-        <v>0.1877905052641999</v>
+        <v>0.2001396634215631</v>
       </c>
       <c r="N4">
-        <v>1.386996248919765</v>
+        <v>2.619638802877816</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8499092709537308</v>
+        <v>0.7692530707309402</v>
       </c>
       <c r="C5">
-        <v>0.08227194898193346</v>
+        <v>0.1036066562302906</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04444294958473094</v>
+        <v>0.1040641896836974</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.8028280702266954</v>
+        <v>1.440439036433304</v>
       </c>
       <c r="H5">
-        <v>0.6161358197478393</v>
+        <v>1.34668385030065</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6710492445180734</v>
+        <v>0.3802623926949309</v>
       </c>
       <c r="L5">
-        <v>0.1224797038747951</v>
+        <v>0.18870595909695</v>
       </c>
       <c r="M5">
-        <v>0.181311419907658</v>
+        <v>0.1986777939036948</v>
       </c>
       <c r="N5">
-        <v>1.402218413922462</v>
+        <v>2.625986534335567</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8444189368472621</v>
+        <v>0.7679268843137663</v>
       </c>
       <c r="C6">
-        <v>0.0820790927612407</v>
+        <v>0.1035360759253692</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04440039623607817</v>
+        <v>0.1040766110150404</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.8023528318266386</v>
+        <v>1.44071629488117</v>
       </c>
       <c r="H6">
-        <v>0.6162661129260698</v>
+        <v>1.34703771661033</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.666249329113711</v>
+        <v>0.3789776433493017</v>
       </c>
       <c r="L6">
-        <v>0.1219446204203933</v>
+        <v>0.1886142103971054</v>
       </c>
       <c r="M6">
-        <v>0.1802382855712708</v>
+        <v>0.198436660501315</v>
       </c>
       <c r="N6">
-        <v>1.404768685411707</v>
+        <v>2.627052076531811</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8825928273432169</v>
+        <v>0.7771690696268649</v>
       </c>
       <c r="C7">
-        <v>0.08341714211545082</v>
+        <v>0.1040244323288064</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04470010768299204</v>
+        <v>0.1039935004256964</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.8057844586727043</v>
+        <v>1.438857214018881</v>
       </c>
       <c r="H7">
-        <v>0.6154401725897571</v>
+        <v>1.344626969306475</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.699604506191946</v>
+        <v>0.3879122970341911</v>
       </c>
       <c r="L7">
-        <v>0.1256718203712452</v>
+        <v>0.1892592916477085</v>
       </c>
       <c r="M7">
-        <v>0.1877029414500839</v>
+        <v>0.2001198403332154</v>
       </c>
       <c r="N7">
-        <v>1.387200016960129</v>
+        <v>2.61972363924956</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.052799716125037</v>
+        <v>0.8188656839572843</v>
       </c>
       <c r="C8">
-        <v>0.08931206098237254</v>
+        <v>0.1061411763523452</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04613307983820647</v>
+        <v>0.1037035083077793</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.8243513765304868</v>
+        <v>1.432272296002878</v>
       </c>
       <c r="H8">
-        <v>0.6137963682254792</v>
+        <v>1.33511358051345</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8478690953328396</v>
+        <v>0.4277601667052977</v>
       </c>
       <c r="L8">
-        <v>0.1424626203432808</v>
+        <v>0.192309566081768</v>
       </c>
       <c r="M8">
-        <v>0.2210676237838953</v>
+        <v>0.2077806243833571</v>
       </c>
       <c r="N8">
-        <v>1.313025304723382</v>
+        <v>2.589057366389191</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.394400517188188</v>
+        <v>0.9038922276211565</v>
       </c>
       <c r="C9">
-        <v>0.1008886175333714</v>
+        <v>0.1101551040681272</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04936985419221962</v>
+        <v>0.103409567812804</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.8744491053967209</v>
+        <v>1.425184280816268</v>
       </c>
       <c r="H9">
-        <v>0.618383167242385</v>
+        <v>1.320496112909865</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.143757126792252</v>
+        <v>0.5074036632164791</v>
       </c>
       <c r="L9">
-        <v>0.1768148367648408</v>
+        <v>0.1990203353757352</v>
       </c>
       <c r="M9">
-        <v>0.2883404134309018</v>
+        <v>0.223637336500154</v>
       </c>
       <c r="N9">
-        <v>1.180239628991785</v>
+        <v>2.534931568933732</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.651726379556635</v>
+        <v>0.9683389370032671</v>
       </c>
       <c r="C10">
-        <v>0.1094582267743078</v>
+        <v>0.1130214179392652</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05203858195250888</v>
+        <v>0.103360179571391</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.9210129174109767</v>
+        <v>1.423536407851046</v>
       </c>
       <c r="H10">
-        <v>0.6271467399941173</v>
+        <v>1.312215575935511</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.365609110610222</v>
+        <v>0.5668310602073063</v>
       </c>
       <c r="L10">
-        <v>0.203119337202736</v>
+        <v>0.2043937332259844</v>
       </c>
       <c r="M10">
-        <v>0.33921991652511</v>
+        <v>0.2357935449480308</v>
       </c>
       <c r="N10">
-        <v>1.091033635988754</v>
+        <v>2.498827336642194</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.770551088332724</v>
+        <v>0.9980853358762829</v>
       </c>
       <c r="C11">
-        <v>0.1133840935786381</v>
+        <v>0.1143076019786378</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05332305105523005</v>
+        <v>0.1033736936665566</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.9446548276391127</v>
+        <v>1.42356170712597</v>
       </c>
       <c r="H11">
-        <v>0.632457155261136</v>
+        <v>1.308981936619816</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.467825535239854</v>
+        <v>0.5940643584593772</v>
       </c>
       <c r="L11">
-        <v>0.2153646465364858</v>
+        <v>0.2069341488516585</v>
       </c>
       <c r="M11">
-        <v>0.362761443186443</v>
+        <v>0.2414333025440882</v>
       </c>
       <c r="N11">
-        <v>1.052416297941981</v>
+        <v>2.483197281497603</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.815834884062383</v>
+        <v>1.009410957406118</v>
       </c>
       <c r="C12">
-        <v>0.1148758926177464</v>
+        <v>0.1147921081971646</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0538202247867261</v>
+        <v>0.1033839683222109</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.9539919436756037</v>
+        <v>1.423682857504787</v>
       </c>
       <c r="H12">
-        <v>0.6346722822490136</v>
+        <v>1.307834070970173</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.506747149589643</v>
+        <v>0.6044054304394137</v>
       </c>
       <c r="L12">
-        <v>0.2200459979451921</v>
+        <v>0.207909907817438</v>
       </c>
       <c r="M12">
-        <v>0.371740059663459</v>
+        <v>0.2435846644789734</v>
       </c>
       <c r="N12">
-        <v>1.038089160916812</v>
+        <v>2.477392769680993</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.80606886103331</v>
+        <v>1.006969062290807</v>
       </c>
       <c r="C13">
-        <v>0.1145543571815537</v>
+        <v>0.114687874186636</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05371265966468819</v>
+        <v>0.103381526393175</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.9519634150868939</v>
+        <v>1.423651801302682</v>
       </c>
       <c r="H13">
-        <v>0.6341859016099249</v>
+        <v>1.308077876148204</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.498354669773818</v>
+        <v>0.6021770362104348</v>
       </c>
       <c r="L13">
-        <v>0.2190357443896573</v>
+        <v>0.2076991495438989</v>
       </c>
       <c r="M13">
-        <v>0.3698033926372091</v>
+        <v>0.2431206329436861</v>
       </c>
       <c r="N13">
-        <v>1.041161345830126</v>
+        <v>2.478637792456915</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.774270650784615</v>
+        <v>0.9990158753309402</v>
       </c>
       <c r="C14">
-        <v>0.1135067140971344</v>
+        <v>0.1143475135549394</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05336373408298378</v>
+        <v>0.1033744357078845</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.9454151083376132</v>
+        <v>1.423569437422657</v>
       </c>
       <c r="H14">
-        <v>0.6326352196998215</v>
+        <v>1.3088859651577</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.471023171326209</v>
+        <v>0.5949145567913945</v>
       </c>
       <c r="L14">
-        <v>0.2157488709497386</v>
+        <v>0.2070141496717497</v>
       </c>
       <c r="M14">
-        <v>0.3634987957393179</v>
+        <v>0.241609982065043</v>
       </c>
       <c r="N14">
-        <v>1.051231570162287</v>
+        <v>2.482717450571506</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.754831804965448</v>
+        <v>0.9941522899871131</v>
       </c>
       <c r="C15">
-        <v>0.1128657119103806</v>
+        <v>0.114138701683693</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05315142992356492</v>
+        <v>0.1033707635733911</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.9414551002218019</v>
+        <v>1.423533520965577</v>
       </c>
       <c r="H15">
-        <v>0.6317124028344097</v>
+        <v>1.309390923288788</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.454310648523204</v>
+        <v>0.5904697705983324</v>
       </c>
       <c r="L15">
-        <v>0.2137414665828459</v>
+        <v>0.2065963577691576</v>
       </c>
       <c r="M15">
-        <v>0.359645592995598</v>
+        <v>0.2406867078846417</v>
       </c>
       <c r="N15">
-        <v>1.057438913981628</v>
+        <v>2.485231240323913</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.643999245216492</v>
+        <v>0.9664035417249011</v>
       </c>
       <c r="C16">
-        <v>0.109202315918715</v>
+        <v>0.1129370066142528</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05195611040977077</v>
+        <v>0.1033600189806911</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.9195199314958273</v>
+        <v>1.423550359627512</v>
       </c>
       <c r="H16">
-        <v>0.6268274873066275</v>
+        <v>1.312437628755987</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.358957447819478</v>
+        <v>0.5650552908875852</v>
       </c>
       <c r="L16">
-        <v>0.2023250454216736</v>
+        <v>0.2042296391582283</v>
       </c>
       <c r="M16">
-        <v>0.3376899789913281</v>
+        <v>0.2354271763502283</v>
       </c>
       <c r="N16">
-        <v>1.093598052527987</v>
+        <v>2.49986478064924</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.5764823748585</v>
+        <v>0.949490228473195</v>
       </c>
       <c r="C17">
-        <v>0.1069628071398725</v>
+        <v>0.1121952707191625</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05124130771081958</v>
+        <v>0.1033626311069984</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.9067145337133979</v>
+        <v>1.42375926349942</v>
       </c>
       <c r="H17">
-        <v>0.6241793065648551</v>
+        <v>1.314443230180615</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.30081239838114</v>
+        <v>0.5495152283309892</v>
       </c>
       <c r="L17">
-        <v>0.1953958286659514</v>
+        <v>0.2028022937218026</v>
       </c>
       <c r="M17">
-        <v>0.3243271907260876</v>
+        <v>0.2322286946191596</v>
       </c>
       <c r="N17">
-        <v>1.116292979202214</v>
+        <v>2.509045389012549</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.537812511130568</v>
+        <v>0.9398025679213333</v>
       </c>
       <c r="C18">
-        <v>0.1056772116574507</v>
+        <v>0.1117669760565008</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05083676224946387</v>
+        <v>0.1033675212450778</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.8995787575413914</v>
+        <v>1.423952350829339</v>
       </c>
       <c r="H18">
-        <v>0.6227798569985623</v>
+        <v>1.315646989987812</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.26748895735318</v>
+        <v>0.5405957873341549</v>
       </c>
       <c r="L18">
-        <v>0.1914363445218044</v>
+        <v>0.2019903641786698</v>
       </c>
       <c r="M18">
-        <v>0.3166781100855189</v>
+        <v>0.2303993560941251</v>
       </c>
       <c r="N18">
-        <v>1.129530348723925</v>
+        <v>2.514400556412543</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.524746757407343</v>
+        <v>0.9365294492675957</v>
       </c>
       <c r="C19">
-        <v>0.1052423275261987</v>
+        <v>0.1116216762815228</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0507009031367911</v>
+        <v>0.1033697593195644</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.8972012348152418</v>
+        <v>1.424030248762904</v>
       </c>
       <c r="H19">
-        <v>0.622326871927541</v>
+        <v>1.316063183737796</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.256226007299119</v>
+        <v>0.5375790536890861</v>
       </c>
       <c r="L19">
-        <v>0.1901000781482054</v>
+        <v>0.2017170132576496</v>
       </c>
       <c r="M19">
-        <v>0.3140943865098649</v>
+        <v>0.2297817526534871</v>
       </c>
       <c r="N19">
-        <v>1.134043457703861</v>
+        <v>2.516226555584108</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.583652447521217</v>
+        <v>0.9512864982614815</v>
       </c>
       <c r="C20">
-        <v>0.1072009384699371</v>
+        <v>0.1122744023534921</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05131671311564823</v>
+        <v>0.1033620025487778</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.9080537177883912</v>
+        <v>1.423729476213879</v>
       </c>
       <c r="H20">
-        <v>0.6244483093559126</v>
+        <v>1.314224536152594</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.306989415479563</v>
+        <v>0.551167551589856</v>
       </c>
       <c r="L20">
-        <v>0.1961307337065534</v>
+        <v>0.2029533016527978</v>
       </c>
       <c r="M20">
-        <v>0.3257458205340384</v>
+        <v>0.2325681085651681</v>
       </c>
       <c r="N20">
-        <v>1.113857939040738</v>
+        <v>2.508060363300082</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.783602473893183</v>
+        <v>1.00135025866868</v>
       </c>
       <c r="C21">
-        <v>0.113814282104876</v>
+        <v>0.1144475547303401</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0534659242548905</v>
+        <v>0.1033763785843451</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.9473278141509098</v>
+        <v>1.42359060061446</v>
       </c>
       <c r="H21">
-        <v>0.6330850352450028</v>
+        <v>1.308646530002704</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.479045037385248</v>
+        <v>0.5970469540850445</v>
       </c>
       <c r="L21">
-        <v>0.2167130678090103</v>
+        <v>0.2072149777321215</v>
       </c>
       <c r="M21">
-        <v>0.3653488146817168</v>
+        <v>0.2420532712201577</v>
       </c>
       <c r="N21">
-        <v>1.048265538278422</v>
+        <v>2.481516054675264</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.915974430202567</v>
+        <v>1.034426962160722</v>
       </c>
       <c r="C22">
-        <v>0.1181671959011794</v>
+        <v>0.1158530102303246</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05493368425733358</v>
+        <v>0.103415826253805</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.9752525758970165</v>
+        <v>1.424150217511794</v>
       </c>
       <c r="H22">
-        <v>0.63992703625442</v>
+        <v>1.305447702524134</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.592758266787342</v>
+        <v>0.6271972825047385</v>
       </c>
       <c r="L22">
-        <v>0.230425301491394</v>
+        <v>0.2100804023751124</v>
       </c>
       <c r="M22">
-        <v>0.3916080629671086</v>
+        <v>0.2483438923706061</v>
       </c>
       <c r="N22">
-        <v>1.007132223679335</v>
+        <v>2.464833797023307</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.845158321415227</v>
+        <v>1.016740763836907</v>
       </c>
       <c r="C23">
-        <v>0.1158407255319389</v>
+        <v>0.1151042474083397</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0541443125641905</v>
+        <v>0.1033920280779199</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.9601312962135324</v>
+        <v>1.42379198413812</v>
       </c>
       <c r="H23">
-        <v>0.6361609052335808</v>
+        <v>1.307114112356146</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.531941678555683</v>
+        <v>0.6110904324286821</v>
       </c>
       <c r="L23">
-        <v>0.2230815298385806</v>
+        <v>0.2085437520794926</v>
       </c>
       <c r="M23">
-        <v>0.3775561142976329</v>
+        <v>0.2449781239716131</v>
       </c>
       <c r="N23">
-        <v>1.028922109120153</v>
+        <v>2.473676466071073</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.580410403906541</v>
+        <v>0.9504742924330003</v>
       </c>
       <c r="C24">
-        <v>0.1070932733799737</v>
+        <v>0.1122386327386593</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05128260243271043</v>
+        <v>0.1033622761645283</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.9074475703442602</v>
+        <v>1.423742715706268</v>
       </c>
       <c r="H24">
-        <v>0.6243263110311972</v>
+        <v>1.314323249747815</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.30419646134925</v>
+        <v>0.5504204902866832</v>
       </c>
       <c r="L24">
-        <v>0.195798408024487</v>
+        <v>0.2028850039568084</v>
       </c>
       <c r="M24">
-        <v>0.3251043545965047</v>
+        <v>0.2324146298874936</v>
       </c>
       <c r="N24">
-        <v>1.11495823071315</v>
+        <v>2.508505453217339</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.30099422807433</v>
+        <v>0.8805423102667191</v>
       </c>
       <c r="C25">
-        <v>0.09774975951231824</v>
+        <v>0.1090838144836397</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04844550477261755</v>
+        <v>0.1034597692701826</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.8592912523343728</v>
+        <v>1.426477285122616</v>
       </c>
       <c r="H25">
-        <v>0.6162436693989832</v>
+        <v>1.324018508403185</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.063029784038662</v>
+        <v>0.4856974337952238</v>
       </c>
       <c r="L25">
-        <v>0.1673495262801268</v>
+        <v>0.1971269890830385</v>
       </c>
       <c r="M25">
-        <v>0.269911221108913</v>
+        <v>0.2192586156575018</v>
       </c>
       <c r="N25">
-        <v>1.214743273701973</v>
+        <v>2.548930797048079</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_74/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8303843263742863</v>
+        <v>1.099392047180913</v>
       </c>
       <c r="C2">
-        <v>0.1067054068322477</v>
+        <v>0.09090856408219139</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1036435616348044</v>
+        <v>0.04654915641480351</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.430881998654868</v>
+        <v>0.8302594770121203</v>
       </c>
       <c r="H2">
-        <v>1.332809327528906</v>
+        <v>0.6138576484521394</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4386586759883073</v>
+        <v>0.8883433386049546</v>
       </c>
       <c r="L2">
-        <v>0.1931854430375068</v>
+        <v>0.1471017124192144</v>
       </c>
       <c r="M2">
-        <v>0.2099128288949856</v>
+        <v>0.2302211896872386</v>
       </c>
       <c r="N2">
-        <v>2.581155204035216</v>
+        <v>1.293763492631655</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7972251687634753</v>
+        <v>0.96481635572502</v>
       </c>
       <c r="C3">
-        <v>0.1050585938253974</v>
+        <v>0.08627821067299379</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1038382882349609</v>
+        <v>0.04537401876218006</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.435355864311873</v>
+        <v>0.8141265290520749</v>
       </c>
       <c r="H3">
-        <v>1.339798634065673</v>
+        <v>0.6142560980506175</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.407164507892162</v>
+        <v>0.7713144480997016</v>
       </c>
       <c r="L3">
-        <v>0.190700560962263</v>
+        <v>0.1337503218238538</v>
       </c>
       <c r="M3">
-        <v>0.203792270929231</v>
+        <v>0.2038051637971527</v>
       </c>
       <c r="N3">
-        <v>2.604529354432923</v>
+        <v>1.350572231407149</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7772777148367993</v>
+        <v>0.8830404001714669</v>
       </c>
       <c r="C4">
-        <v>0.1040301257229146</v>
+        <v>0.08343279142192017</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1039925699847881</v>
+        <v>0.04470367374947237</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.438836345955579</v>
+        <v>0.8058264250544198</v>
       </c>
       <c r="H4">
-        <v>1.344599376255275</v>
+        <v>0.6154315755202049</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3880170742764903</v>
+        <v>0.69999533403778</v>
       </c>
       <c r="L4">
-        <v>0.1892669514525096</v>
+        <v>0.1257156125659833</v>
       </c>
       <c r="M4">
-        <v>0.2001396634215631</v>
+        <v>0.1877905052642177</v>
       </c>
       <c r="N4">
-        <v>2.619638802877816</v>
+        <v>1.386996248919825</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7692530707309402</v>
+        <v>0.849909270953674</v>
       </c>
       <c r="C5">
-        <v>0.1036066562302906</v>
+        <v>0.08227194898159951</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1040641896836974</v>
+        <v>0.04444294958473094</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.440439036433304</v>
+        <v>0.8028280702266812</v>
       </c>
       <c r="H5">
-        <v>1.34668385030065</v>
+        <v>0.6161358197477398</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3802623926949309</v>
+        <v>0.671049244518116</v>
       </c>
       <c r="L5">
-        <v>0.18870595909695</v>
+        <v>0.1224797038746814</v>
       </c>
       <c r="M5">
-        <v>0.1986777939036948</v>
+        <v>0.1813114199076615</v>
       </c>
       <c r="N5">
-        <v>2.625986534335567</v>
+        <v>1.402218413922473</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7679268843137663</v>
+        <v>0.8444189368469495</v>
       </c>
       <c r="C6">
-        <v>0.1035360759253692</v>
+        <v>0.0820790927612407</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1040766110150404</v>
+        <v>0.04440039623609238</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.44071629488117</v>
+        <v>0.8023528318266671</v>
       </c>
       <c r="H6">
-        <v>1.34703771661033</v>
+        <v>0.6162661129260698</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3789776433493017</v>
+        <v>0.6662493291136542</v>
       </c>
       <c r="L6">
-        <v>0.1886142103971054</v>
+        <v>0.1219446204204218</v>
       </c>
       <c r="M6">
-        <v>0.198436660501315</v>
+        <v>0.1802382855712494</v>
       </c>
       <c r="N6">
-        <v>2.627052076531811</v>
+        <v>1.404768685411668</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7771690696268649</v>
+        <v>0.8825928273433306</v>
       </c>
       <c r="C7">
-        <v>0.1040244323288064</v>
+        <v>0.08341714211568529</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1039935004256964</v>
+        <v>0.04470010768301336</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.438857214018881</v>
+        <v>0.8057844586726901</v>
       </c>
       <c r="H7">
-        <v>1.344626969306475</v>
+        <v>0.6154401725897571</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3879122970341911</v>
+        <v>0.6996045061920313</v>
       </c>
       <c r="L7">
-        <v>0.1892592916477085</v>
+        <v>0.1256718203711529</v>
       </c>
       <c r="M7">
-        <v>0.2001198403332154</v>
+        <v>0.1877029414500768</v>
       </c>
       <c r="N7">
-        <v>2.61972363924956</v>
+        <v>1.387200016960119</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8188656839572843</v>
+        <v>1.052799716124923</v>
       </c>
       <c r="C8">
-        <v>0.1061411763523452</v>
+        <v>0.08931206098239386</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1037035083077793</v>
+        <v>0.04613307983820647</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.432272296002878</v>
+        <v>0.8243513765305011</v>
       </c>
       <c r="H8">
-        <v>1.33511358051345</v>
+        <v>0.6137963682255787</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4277601667052977</v>
+        <v>0.8478690953328964</v>
       </c>
       <c r="L8">
-        <v>0.192309566081768</v>
+        <v>0.1424626203434016</v>
       </c>
       <c r="M8">
-        <v>0.2077806243833571</v>
+        <v>0.2210676237839024</v>
       </c>
       <c r="N8">
-        <v>2.589057366389191</v>
+        <v>1.313025304723325</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9038922276211565</v>
+        <v>1.394400517188188</v>
       </c>
       <c r="C9">
-        <v>0.1101551040681272</v>
+        <v>0.1008886175334922</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.103409567812804</v>
+        <v>0.04936985419222317</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.425184280816268</v>
+        <v>0.8744491053968204</v>
       </c>
       <c r="H9">
-        <v>1.320496112909865</v>
+        <v>0.6183831672422855</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5074036632164791</v>
+        <v>1.143757126792451</v>
       </c>
       <c r="L9">
-        <v>0.1990203353757352</v>
+        <v>0.1768148367647981</v>
       </c>
       <c r="M9">
-        <v>0.223637336500154</v>
+        <v>0.2883404134308947</v>
       </c>
       <c r="N9">
-        <v>2.534931568933732</v>
+        <v>1.180239628991732</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9683389370032671</v>
+        <v>1.651726379556521</v>
       </c>
       <c r="C10">
-        <v>0.1130214179392652</v>
+        <v>0.1094582267743149</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.103360179571391</v>
+        <v>0.05203858195249111</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.423536407851046</v>
+        <v>0.9210129174110193</v>
       </c>
       <c r="H10">
-        <v>1.312215575935511</v>
+        <v>0.6271467399941173</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5668310602073063</v>
+        <v>1.365609110610194</v>
       </c>
       <c r="L10">
-        <v>0.2043937332259844</v>
+        <v>0.2031193372027502</v>
       </c>
       <c r="M10">
-        <v>0.2357935449480308</v>
+        <v>0.3392199165251242</v>
       </c>
       <c r="N10">
-        <v>2.498827336642194</v>
+        <v>1.091033635988676</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9980853358762829</v>
+        <v>1.770551088332638</v>
       </c>
       <c r="C11">
-        <v>0.1143076019786378</v>
+        <v>0.1133840935786381</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1033736936665566</v>
+        <v>0.05332305105523005</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.42356170712597</v>
+        <v>0.9446548276391269</v>
       </c>
       <c r="H11">
-        <v>1.308981936619816</v>
+        <v>0.6324571552612639</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5940643584593772</v>
+        <v>1.467825535239854</v>
       </c>
       <c r="L11">
-        <v>0.2069341488516585</v>
+        <v>0.2153646465364147</v>
       </c>
       <c r="M11">
-        <v>0.2414333025440882</v>
+        <v>0.3627614431864359</v>
       </c>
       <c r="N11">
-        <v>2.483197281497603</v>
+        <v>1.052416297941996</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.009410957406118</v>
+        <v>1.815834884062212</v>
       </c>
       <c r="C12">
-        <v>0.1147921081971646</v>
+        <v>0.1148758926176399</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1033839683222109</v>
+        <v>0.0538202247867261</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.423682857504787</v>
+        <v>0.9539919436756179</v>
       </c>
       <c r="H12">
-        <v>1.307834070970173</v>
+        <v>0.6346722822489994</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6044054304394137</v>
+        <v>1.506747149589501</v>
       </c>
       <c r="L12">
-        <v>0.207909907817438</v>
+        <v>0.2200459979451779</v>
       </c>
       <c r="M12">
-        <v>0.2435846644789734</v>
+        <v>0.3717400596634661</v>
       </c>
       <c r="N12">
-        <v>2.477392769680993</v>
+        <v>1.038089160916805</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.006969062290807</v>
+        <v>1.806068861033253</v>
       </c>
       <c r="C13">
-        <v>0.114687874186636</v>
+        <v>0.1145543571815395</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.103381526393175</v>
+        <v>0.0537126596646651</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.423651801302682</v>
+        <v>0.9519634150869223</v>
       </c>
       <c r="H13">
-        <v>1.308077876148204</v>
+        <v>0.6341859016099107</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6021770362104348</v>
+        <v>1.498354669773732</v>
       </c>
       <c r="L13">
-        <v>0.2076991495438989</v>
+        <v>0.2190357443896715</v>
       </c>
       <c r="M13">
-        <v>0.2431206329436861</v>
+        <v>0.3698033926372233</v>
       </c>
       <c r="N13">
-        <v>2.478637792456915</v>
+        <v>1.04116134583014</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9990158753309402</v>
+        <v>1.774270650784644</v>
       </c>
       <c r="C14">
-        <v>0.1143475135549394</v>
+        <v>0.1135067140970136</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1033744357078845</v>
+        <v>0.05336373408301576</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.423569437422657</v>
+        <v>0.9454151083376843</v>
       </c>
       <c r="H14">
-        <v>1.3088859651577</v>
+        <v>0.6326352196996936</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5949145567913945</v>
+        <v>1.471023171326181</v>
       </c>
       <c r="L14">
-        <v>0.2070141496717497</v>
+        <v>0.2157488709497812</v>
       </c>
       <c r="M14">
-        <v>0.241609982065043</v>
+        <v>0.363498795739325</v>
       </c>
       <c r="N14">
-        <v>2.482717450571506</v>
+        <v>1.051231570162315</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9941522899871131</v>
+        <v>1.754831804965391</v>
       </c>
       <c r="C15">
-        <v>0.114138701683693</v>
+        <v>0.1128657119103806</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1033707635733911</v>
+        <v>0.05315142992355071</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.423533520965577</v>
+        <v>0.9414551002217166</v>
       </c>
       <c r="H15">
-        <v>1.309390923288788</v>
+        <v>0.6317124028344097</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5904697705983324</v>
+        <v>1.45431064852329</v>
       </c>
       <c r="L15">
-        <v>0.2065963577691576</v>
+        <v>0.2137414665828743</v>
       </c>
       <c r="M15">
-        <v>0.2406867078846417</v>
+        <v>0.359645592995598</v>
       </c>
       <c r="N15">
-        <v>2.485231240323913</v>
+        <v>1.057438913981692</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9664035417249011</v>
+        <v>1.643999245216406</v>
       </c>
       <c r="C16">
-        <v>0.1129370066142528</v>
+        <v>0.1092023159184805</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1033600189806911</v>
+        <v>0.05195611040978498</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.423550359627512</v>
+        <v>0.9195199314958842</v>
       </c>
       <c r="H16">
-        <v>1.312437628755987</v>
+        <v>0.6268274873066417</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5650552908875852</v>
+        <v>1.358957447819392</v>
       </c>
       <c r="L16">
-        <v>0.2042296391582283</v>
+        <v>0.2023250454216736</v>
       </c>
       <c r="M16">
-        <v>0.2354271763502283</v>
+        <v>0.3376899789913281</v>
       </c>
       <c r="N16">
-        <v>2.49986478064924</v>
+        <v>1.093598052528048</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.949490228473195</v>
+        <v>1.576482374858614</v>
       </c>
       <c r="C17">
-        <v>0.1121952707191625</v>
+        <v>0.1069628071396238</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1033626311069984</v>
+        <v>0.05124130771081958</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.42375926349942</v>
+        <v>0.9067145337133979</v>
       </c>
       <c r="H17">
-        <v>1.314443230180615</v>
+        <v>0.6241793065648409</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5495152283309892</v>
+        <v>1.300812398381225</v>
       </c>
       <c r="L17">
-        <v>0.2028022937218026</v>
+        <v>0.1953958286660651</v>
       </c>
       <c r="M17">
-        <v>0.2322286946191596</v>
+        <v>0.3243271907261018</v>
       </c>
       <c r="N17">
-        <v>2.509045389012549</v>
+        <v>1.116292979202179</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9398025679213333</v>
+        <v>1.537812511130596</v>
       </c>
       <c r="C18">
-        <v>0.1117669760565008</v>
+        <v>0.1056772116575644</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1033675212450778</v>
+        <v>0.05083676224946565</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.423952350829339</v>
+        <v>0.899578757541363</v>
       </c>
       <c r="H18">
-        <v>1.315646989987812</v>
+        <v>0.622779856998676</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5405957873341549</v>
+        <v>1.267488957353208</v>
       </c>
       <c r="L18">
-        <v>0.2019903641786698</v>
+        <v>0.1914363445218044</v>
       </c>
       <c r="M18">
-        <v>0.2303993560941251</v>
+        <v>0.3166781100855331</v>
       </c>
       <c r="N18">
-        <v>2.514400556412543</v>
+        <v>1.129530348723904</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9365294492675957</v>
+        <v>1.524746757407144</v>
       </c>
       <c r="C19">
-        <v>0.1116216762815228</v>
+        <v>0.10524232752595</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1033697593195644</v>
+        <v>0.05070090313683551</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.424030248762904</v>
+        <v>0.8972012348151566</v>
       </c>
       <c r="H19">
-        <v>1.316063183737796</v>
+        <v>0.6223268719276689</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5375790536890861</v>
+        <v>1.256226007299091</v>
       </c>
       <c r="L19">
-        <v>0.2017170132576496</v>
+        <v>0.1901000781482765</v>
       </c>
       <c r="M19">
-        <v>0.2297817526534871</v>
+        <v>0.3140943865098578</v>
       </c>
       <c r="N19">
-        <v>2.516226555584108</v>
+        <v>1.134043457703847</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9512864982614815</v>
+        <v>1.58365244752116</v>
       </c>
       <c r="C20">
-        <v>0.1122744023534921</v>
+        <v>0.10720093846993</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1033620025487778</v>
+        <v>0.05131671311563224</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.423729476213879</v>
+        <v>0.908053717788377</v>
       </c>
       <c r="H20">
-        <v>1.314224536152594</v>
+        <v>0.6244483093559126</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.551167551589856</v>
+        <v>1.306989415479563</v>
       </c>
       <c r="L20">
-        <v>0.2029533016527978</v>
+        <v>0.1961307337065676</v>
       </c>
       <c r="M20">
-        <v>0.2325681085651681</v>
+        <v>0.3257458205340384</v>
       </c>
       <c r="N20">
-        <v>2.508060363300082</v>
+        <v>1.113857939040734</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.00135025866868</v>
+        <v>1.783602473893069</v>
       </c>
       <c r="C21">
-        <v>0.1144475547303401</v>
+        <v>0.1138142821048689</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1033763785843451</v>
+        <v>0.05346592425487806</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.42359060061446</v>
+        <v>0.9473278141508814</v>
       </c>
       <c r="H21">
-        <v>1.308646530002704</v>
+        <v>0.6330850352449033</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5970469540850445</v>
+        <v>1.479045037385248</v>
       </c>
       <c r="L21">
-        <v>0.2072149777321215</v>
+        <v>0.2167130678090246</v>
       </c>
       <c r="M21">
-        <v>0.2420532712201577</v>
+        <v>0.3653488146817025</v>
       </c>
       <c r="N21">
-        <v>2.481516054675264</v>
+        <v>1.0482655382784</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.034426962160722</v>
+        <v>1.915974430202539</v>
       </c>
       <c r="C22">
-        <v>0.1158530102303246</v>
+        <v>0.1181671959009307</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.103415826253805</v>
+        <v>0.05493368425733181</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.424150217511794</v>
+        <v>0.9752525758971302</v>
       </c>
       <c r="H22">
-        <v>1.305447702524134</v>
+        <v>0.6399270362543064</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6271972825047385</v>
+        <v>1.592758266787285</v>
       </c>
       <c r="L22">
-        <v>0.2100804023751124</v>
+        <v>0.2304253014913655</v>
       </c>
       <c r="M22">
-        <v>0.2483438923706061</v>
+        <v>0.3916080629670944</v>
       </c>
       <c r="N22">
-        <v>2.464833797023307</v>
+        <v>1.007132223679321</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.016740763836907</v>
+        <v>1.845158321415255</v>
       </c>
       <c r="C23">
-        <v>0.1151042474083397</v>
+        <v>0.1158407255318181</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1033920280779199</v>
+        <v>0.05414431256417451</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.42379198413812</v>
+        <v>0.9601312962135609</v>
       </c>
       <c r="H23">
-        <v>1.307114112356146</v>
+        <v>0.636160905233595</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6110904324286821</v>
+        <v>1.531941678555683</v>
       </c>
       <c r="L23">
-        <v>0.2085437520794926</v>
+        <v>0.2230815298385238</v>
       </c>
       <c r="M23">
-        <v>0.2449781239716131</v>
+        <v>0.3775561142976471</v>
       </c>
       <c r="N23">
-        <v>2.473676466071073</v>
+        <v>1.028922109120124</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9504742924330003</v>
+        <v>1.580410403906541</v>
       </c>
       <c r="C24">
-        <v>0.1122386327386593</v>
+        <v>0.1070932733799594</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1033622761645283</v>
+        <v>0.05128260243271043</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.423742715706268</v>
+        <v>0.9074475703442459</v>
       </c>
       <c r="H24">
-        <v>1.314323249747815</v>
+        <v>0.6243263110312114</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5504204902866832</v>
+        <v>1.304196461349278</v>
       </c>
       <c r="L24">
-        <v>0.2028850039568084</v>
+        <v>0.1957984080245438</v>
       </c>
       <c r="M24">
-        <v>0.2324146298874936</v>
+        <v>0.325104354596526</v>
       </c>
       <c r="N24">
-        <v>2.508505453217339</v>
+        <v>1.114958230713142</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8805423102667191</v>
+        <v>1.300994228074245</v>
       </c>
       <c r="C25">
-        <v>0.1090838144836397</v>
+        <v>0.0977497595127943</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1034597692701826</v>
+        <v>0.04844550477259979</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.426477285122616</v>
+        <v>0.8592912523344012</v>
       </c>
       <c r="H25">
-        <v>1.324018508403185</v>
+        <v>0.6162436693989832</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4856974337952238</v>
+        <v>1.063029784038719</v>
       </c>
       <c r="L25">
-        <v>0.1971269890830385</v>
+        <v>0.1673495262800984</v>
       </c>
       <c r="M25">
-        <v>0.2192586156575018</v>
+        <v>0.269911221108913</v>
       </c>
       <c r="N25">
-        <v>2.548930797048079</v>
+        <v>1.214743273701988</v>
       </c>
       <c r="O25">
         <v>0</v>
